--- a/app/data/legacy_data/legacy_data.xlsx
+++ b/app/data/legacy_data/legacy_data.xlsx
@@ -307,11 +307,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="166" formatCode="HH:MM"/>
-    <numFmt numFmtId="167" formatCode="0&quot;9:&quot;00"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="167" formatCode="HH:MM"/>
+    <numFmt numFmtId="168" formatCode="0&quot;9:&quot;00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -480,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,11 +494,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,13 +629,13 @@
   </sheetPr>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.2091836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.78571428571429"/>
   </cols>
   <sheetData>
@@ -980,14 +985,14 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4132653061224"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78571428571429"/>
   </cols>
   <sheetData>
@@ -1065,16 +1070,17 @@
   </sheetPr>
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A205" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C229" activeCellId="0" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.78571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.78571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4897959183673"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.78571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6377551020408"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78571428571429"/>
   </cols>
   <sheetData>
@@ -1096,34 +1102,34 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="0" t="n">
@@ -1131,31 +1137,31 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -1163,16 +1169,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -1180,16 +1186,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -1197,25 +1203,25 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>0.666666666666666</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1229,16 +1235,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -1246,16 +1252,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B11" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="0" t="n">
@@ -1263,31 +1269,31 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B12" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B13" s="2" t="n">
+      <c r="A13" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B13" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="0" t="n">
@@ -1295,16 +1301,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B14" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="0" t="n">
@@ -1312,16 +1318,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B15" s="2" t="n">
+      <c r="A15" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B15" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="0" t="n">
@@ -1329,25 +1335,25 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8" t="n">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B17" s="2" t="n">
+      <c r="A17" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B17" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -1361,31 +1367,31 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B18" s="2" t="n">
+      <c r="A18" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B18" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B19" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -1393,16 +1399,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B20" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -1410,16 +1416,16 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B21" s="2" t="n">
+      <c r="A21" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B21" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -1427,25 +1433,25 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B22" s="2" t="n">
+      <c r="A22" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B22" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B23" s="2" t="n">
+      <c r="A23" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B23" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -1459,10 +1465,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B24" s="2" t="n">
+      <c r="A24" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B24" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -1476,10 +1482,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B25" s="2" t="n">
+      <c r="A25" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B25" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -1493,48 +1499,48 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B26" s="2" t="n">
+      <c r="A26" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B26" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B27" s="2" t="n">
+      <c r="A27" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B27" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B28" s="2" t="n">
+      <c r="A28" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B28" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -1542,16 +1548,16 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B29" s="2" t="n">
+      <c r="A29" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B29" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -1559,25 +1565,25 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B30" s="2" t="n">
+      <c r="A30" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B30" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8" t="n">
+      <c r="D30" s="10"/>
+      <c r="E30" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B31" s="2" t="n">
+      <c r="A31" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B31" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -1591,10 +1597,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B32" s="2" t="n">
+      <c r="A32" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B32" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -1608,10 +1614,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B33" s="2" t="n">
+      <c r="A33" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B33" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -1625,16 +1631,16 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B34" s="2" t="n">
+      <c r="A34" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B34" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="0" t="n">
@@ -1642,16 +1648,16 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B35" s="2" t="n">
+      <c r="A35" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B35" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="0" t="n">
@@ -1659,16 +1665,16 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B36" s="2" t="n">
+      <c r="A36" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B36" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="0" t="n">
@@ -1676,10 +1682,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B37" s="2" t="n">
+      <c r="A37" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B37" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -1693,10 +1699,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B38" s="2" t="n">
+      <c r="A38" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B38" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -1705,21 +1711,21 @@
       <c r="D38" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="8" t="n">
+      <c r="E38" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B39" s="2" t="n">
+      <c r="A39" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B39" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="0" t="n">
@@ -1727,10 +1733,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B40" s="2" t="n">
+      <c r="A40" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B40" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -1739,15 +1745,15 @@
       <c r="D40" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="8" t="n">
+      <c r="E40" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B41" s="2" t="n">
+      <c r="A41" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B41" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -1761,16 +1767,16 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B42" s="2" t="n">
+      <c r="A42" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B42" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="0" t="n">
@@ -1778,33 +1784,33 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B43" s="2" t="n">
+      <c r="A43" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B43" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="8" t="n">
+      <c r="E43" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B44" s="2" t="n">
+      <c r="A44" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B44" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="0" t="n">
@@ -1812,10 +1818,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B45" s="2" t="n">
+      <c r="A45" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B45" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -1829,10 +1835,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B46" s="2" t="n">
+      <c r="A46" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B46" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -1846,27 +1852,27 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B47" s="2" t="n">
+      <c r="A47" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B47" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="8" t="n">
+      <c r="E47" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B48" s="2" t="n">
+      <c r="A48" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B48" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -1880,10 +1886,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B49" s="2" t="n">
+      <c r="A49" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B49" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1897,31 +1903,31 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B50" s="2" t="n">
+      <c r="A50" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B50" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="9"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B51" s="2" t="n">
+      <c r="A51" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B51" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="0" t="n">
@@ -1929,16 +1935,16 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B52" s="2" t="n">
+      <c r="A52" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B52" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E52" s="0" t="n">
@@ -1946,16 +1952,16 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B53" s="2" t="n">
+      <c r="A53" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B53" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="0" t="n">
@@ -1963,33 +1969,33 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B54" s="2" t="n">
+      <c r="A54" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B54" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="8" t="n">
+      <c r="E54" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B55" s="2" t="n">
+      <c r="A55" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B55" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="0" t="n">
@@ -1997,10 +2003,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B56" s="2" t="n">
+      <c r="A56" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B56" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -2014,10 +2020,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B57" s="2" t="n">
+      <c r="A57" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B57" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -2026,36 +2032,36 @@
       <c r="D57" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="8" t="n">
+      <c r="E57" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B58" s="2" t="n">
+      <c r="A58" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B58" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="9"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B59" s="2" t="n">
+      <c r="A59" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B59" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="0" t="n">
@@ -2063,16 +2069,16 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B60" s="2" t="n">
+      <c r="A60" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B60" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="0" t="n">
@@ -2080,16 +2086,16 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B61" s="2" t="n">
+      <c r="A61" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B61" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E61" s="0" t="n">
@@ -2097,33 +2103,33 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B62" s="2" t="n">
+      <c r="A62" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B62" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E62" s="8" t="n">
+      <c r="E62" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B63" s="2" t="n">
+      <c r="A63" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B63" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="0" t="n">
@@ -2131,10 +2137,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B64" s="2" t="n">
+      <c r="A64" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B64" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -2148,10 +2154,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B65" s="2" t="n">
+      <c r="A65" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B65" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -2165,42 +2171,42 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B66" s="2" t="n">
+      <c r="A66" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B66" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="8" t="n">
+      <c r="E66" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B67" s="2" t="n">
+      <c r="A67" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B67" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="9"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B68" s="2" t="n">
+      <c r="A68" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B68" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -2214,10 +2220,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B69" s="2" t="n">
+      <c r="A69" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B69" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -2231,16 +2237,16 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B70" s="2" t="n">
+      <c r="A70" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B70" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E70" s="0" t="n">
@@ -2248,16 +2254,16 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B71" s="2" t="n">
+      <c r="A71" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B71" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E71" s="0" t="n">
@@ -2265,72 +2271,72 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B72" s="2" t="n">
+      <c r="A72" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B72" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="8" t="n">
+      <c r="D72" s="10"/>
+      <c r="E72" s="9" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B73" s="2" t="n">
+      <c r="A73" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B73" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="8" t="n">
+      <c r="D73" s="10"/>
+      <c r="E73" s="9" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B74" s="2" t="n">
+      <c r="A74" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B74" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="8" t="n">
+      <c r="E74" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B75" s="2" t="n">
+      <c r="A75" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B75" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="9"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B76" s="2" t="n">
+      <c r="A76" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B76" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C76" s="0" t="s">
@@ -2339,15 +2345,15 @@
       <c r="D76" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E76" s="8" t="n">
+      <c r="E76" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B77" s="2" t="n">
+      <c r="A77" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B77" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C77" s="0" t="s">
@@ -2356,38 +2362,38 @@
       <c r="D77" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="8" t="n">
+      <c r="E77" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B78" s="2" t="n">
+      <c r="A78" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B78" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="8" t="n">
+      <c r="E78" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B79" s="2" t="n">
+      <c r="A79" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B79" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="0" t="n">
@@ -2395,40 +2401,40 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B80" s="2" t="n">
+      <c r="A80" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B80" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="8" t="n">
+      <c r="D80" s="10"/>
+      <c r="E80" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B81" s="2" t="n">
+      <c r="A81" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B81" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="8" t="n">
+      <c r="D81" s="10"/>
+      <c r="E81" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B82" s="2" t="n">
+      <c r="A82" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B82" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -2442,10 +2448,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B83" s="2" t="n">
+      <c r="A83" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B83" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -2459,10 +2465,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B84" s="2" t="n">
+      <c r="A84" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B84" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -2476,10 +2482,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B85" s="2" t="n">
+      <c r="A85" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B85" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -2493,25 +2499,25 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B86" s="2" t="n">
+      <c r="A86" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B86" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="9"/>
+      <c r="D86" s="10"/>
       <c r="E86" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B87" s="2" t="n">
+      <c r="A87" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B87" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -2525,10 +2531,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B88" s="2" t="n">
+      <c r="A88" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B88" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -2542,10 +2548,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B89" s="2" t="n">
+      <c r="A89" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B89" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -2559,10 +2565,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B90" s="2" t="n">
+      <c r="A90" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B90" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C90" s="0" t="s">
@@ -2576,10 +2582,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B91" s="2" t="n">
+      <c r="A91" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B91" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C91" s="0" t="s">
@@ -2593,10 +2599,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B92" s="2" t="n">
+      <c r="A92" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B92" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C92" s="0" t="s">
@@ -2610,10 +2616,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B93" s="2" t="n">
+      <c r="A93" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B93" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C93" s="0" t="s">
@@ -2627,25 +2633,25 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B94" s="2" t="n">
+      <c r="A94" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B94" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="9"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B95" s="2" t="n">
+      <c r="A95" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B95" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C95" s="0" t="s">
@@ -2659,10 +2665,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B96" s="2" t="n">
+      <c r="A96" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B96" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C96" s="0" t="s">
@@ -2676,10 +2682,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B97" s="2" t="n">
+      <c r="A97" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B97" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C97" s="0" t="s">
@@ -2693,46 +2699,46 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B98" s="2" t="n">
+      <c r="A98" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B98" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D98" s="9"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B99" s="2" t="n">
+      <c r="A99" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B99" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="8" t="n">
+      <c r="D99" s="10"/>
+      <c r="E99" s="9" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B100" s="2" t="n">
+      <c r="A100" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B100" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E100" s="0" t="n">
@@ -2740,121 +2746,121 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B101" s="2" t="n">
+      <c r="A101" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B101" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="8" t="n">
+      <c r="D101" s="10"/>
+      <c r="E101" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B102" s="2" t="n">
+      <c r="A102" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B102" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="9"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B103" s="2" t="n">
+      <c r="A103" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B103" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="8" t="n">
+      <c r="D103" s="10"/>
+      <c r="E103" s="9" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B104" s="2" t="n">
+      <c r="A104" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B104" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="8" t="n">
+      <c r="D104" s="10"/>
+      <c r="E104" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B105" s="2" t="n">
+      <c r="A105" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B105" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="9"/>
+      <c r="D105" s="10"/>
       <c r="E105" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B106" s="2" t="n">
+      <c r="A106" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B106" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D106" s="9"/>
+      <c r="D106" s="10"/>
       <c r="E106" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B107" s="2" t="n">
+      <c r="A107" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B107" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D107" s="9"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B108" s="2" t="n">
+      <c r="A108" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B108" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E108" s="0" t="n">
@@ -2862,85 +2868,85 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B109" s="2" t="n">
+      <c r="A109" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B109" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="8" t="n">
+      <c r="D109" s="10"/>
+      <c r="E109" s="9" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B110" s="2" t="n">
+      <c r="A110" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B110" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="8" t="n">
+      <c r="D110" s="10"/>
+      <c r="E110" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B111" s="2" t="n">
+      <c r="A111" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B111" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="8" t="n">
+      <c r="D111" s="10"/>
+      <c r="E111" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B112" s="2" t="n">
+      <c r="A112" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B112" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="8" t="n">
+      <c r="D112" s="10"/>
+      <c r="E112" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B113" s="2" t="n">
+      <c r="A113" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B113" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="9"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B114" s="2" t="n">
+      <c r="A114" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B114" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C114" s="0" t="s">
@@ -2949,15 +2955,15 @@
       <c r="D114" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="8" t="n">
+      <c r="E114" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B115" s="2" t="n">
+      <c r="A115" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B115" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C115" s="0" t="s">
@@ -2971,10 +2977,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B116" s="2" t="n">
+      <c r="A116" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B116" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C116" s="0" t="s">
@@ -2983,15 +2989,15 @@
       <c r="D116" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E116" s="8" t="n">
+      <c r="E116" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B117" s="2" t="n">
+      <c r="A117" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B117" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C117" s="0" t="s">
@@ -3005,10 +3011,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B118" s="2" t="n">
+      <c r="A118" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B118" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C118" s="0" t="s">
@@ -3022,10 +3028,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B119" s="2" t="n">
+      <c r="A119" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B119" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C119" s="0" t="s">
@@ -3034,15 +3040,15 @@
       <c r="D119" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="8" t="n">
+      <c r="E119" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B120" s="2" t="n">
+      <c r="A120" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B120" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C120" s="0" t="s">
@@ -3051,30 +3057,30 @@
       <c r="D120" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E120" s="8" t="n">
+      <c r="E120" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B121" s="2" t="n">
+      <c r="A121" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B121" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D121" s="9"/>
+      <c r="D121" s="10"/>
       <c r="E121" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B122" s="2" t="n">
+      <c r="A122" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B122" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C122" s="0" t="s">
@@ -3083,15 +3089,15 @@
       <c r="D122" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E122" s="8" t="n">
+      <c r="E122" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B123" s="2" t="n">
+      <c r="A123" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B123" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C123" s="0" t="s">
@@ -3100,15 +3106,15 @@
       <c r="D123" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E123" s="8" t="n">
+      <c r="E123" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B124" s="2" t="n">
+      <c r="A124" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B124" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C124" s="0" t="s">
@@ -3122,10 +3128,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B125" s="2" t="n">
+      <c r="A125" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B125" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C125" s="0" t="s">
@@ -3139,10 +3145,10 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B126" s="2" t="n">
+      <c r="A126" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B126" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C126" s="0" t="s">
@@ -3156,10 +3162,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B127" s="2" t="n">
+      <c r="A127" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B127" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C127" s="0" t="s">
@@ -3173,10 +3179,10 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B128" s="2" t="n">
+      <c r="A128" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B128" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C128" s="0" t="s">
@@ -3190,25 +3196,25 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B129" s="2" t="n">
+      <c r="A129" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B129" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="8" t="n">
+      <c r="D129" s="10"/>
+      <c r="E129" s="9" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B130" s="2" t="n">
+      <c r="A130" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B130" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C130" s="0" t="s">
@@ -3217,51 +3223,51 @@
       <c r="D130" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E130" s="8" t="n">
+      <c r="E130" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B131" s="2" t="n">
+      <c r="A131" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B131" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="8" t="n">
+      <c r="D131" s="10"/>
+      <c r="E131" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B132" s="2" t="n">
+      <c r="A132" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B132" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="8" t="n">
+      <c r="D132" s="10"/>
+      <c r="E132" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B133" s="2" t="n">
+      <c r="A133" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B133" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E133" s="0" t="n">
@@ -3269,31 +3275,31 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B134" s="2" t="n">
+      <c r="A134" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B134" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D134" s="12"/>
-      <c r="E134" s="8" t="n">
+      <c r="D134" s="13"/>
+      <c r="E134" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B135" s="2" t="n">
+      <c r="A135" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B135" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D135" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E135" s="0" t="n">
@@ -3301,27 +3307,27 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B136" s="2" t="n">
+      <c r="A136" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B136" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E136" s="8" t="n">
+      <c r="E136" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B137" s="2" t="n">
+      <c r="A137" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B137" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C137" s="0" t="s">
@@ -3330,68 +3336,68 @@
       <c r="D137" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E137" s="8" t="n">
+      <c r="E137" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B138" s="2" t="n">
+      <c r="A138" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B138" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E138" s="8" t="n">
+      <c r="E138" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B139" s="2" t="n">
+      <c r="A139" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B139" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D139" s="9"/>
+      <c r="D139" s="10"/>
       <c r="E139" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B140" s="2" t="n">
+      <c r="A140" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B140" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D140" s="9"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B141" s="2" t="n">
+      <c r="A141" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B141" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E141" s="0" t="n">
@@ -3399,31 +3405,31 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B142" s="2" t="n">
+      <c r="A142" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B142" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D142" s="12"/>
+      <c r="D142" s="13"/>
       <c r="E142" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B143" s="2" t="n">
+      <c r="A143" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B143" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E143" s="0" t="n">
@@ -3431,16 +3437,16 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B144" s="2" t="n">
+      <c r="A144" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B144" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E144" s="0" t="n">
@@ -3448,10 +3454,10 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B145" s="2" t="n">
+      <c r="A145" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B145" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C145" s="0" t="s">
@@ -3460,15 +3466,15 @@
       <c r="D145" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E145" s="8" t="n">
+      <c r="E145" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B146" s="2" t="n">
+      <c r="A146" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B146" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C146" s="0" t="s">
@@ -3482,10 +3488,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B147" s="2" t="n">
+      <c r="A147" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B147" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C147" s="0" t="s">
@@ -3499,10 +3505,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B148" s="2" t="n">
+      <c r="A148" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B148" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C148" s="0" t="s">
@@ -3516,10 +3522,10 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B149" s="2" t="n">
+      <c r="A149" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B149" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C149" s="0" t="s">
@@ -3533,25 +3539,25 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B150" s="2" t="n">
+      <c r="A150" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B150" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D150" s="12"/>
+      <c r="D150" s="13"/>
       <c r="E150" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B151" s="2" t="n">
+      <c r="A151" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B151" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C151" s="0" t="s">
@@ -3565,10 +3571,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B152" s="2" t="n">
+      <c r="A152" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B152" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C152" s="0" t="s">
@@ -3582,25 +3588,25 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B153" s="2" t="n">
+      <c r="A153" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B153" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="12"/>
-      <c r="E153" s="8" t="n">
+      <c r="D153" s="13"/>
+      <c r="E153" s="9" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B154" s="2" t="n">
+      <c r="A154" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B154" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C154" s="0" t="s">
@@ -3614,10 +3620,10 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B155" s="2" t="n">
+      <c r="A155" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B155" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C155" s="0" t="s">
@@ -3631,10 +3637,10 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B156" s="2" t="n">
+      <c r="A156" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B156" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C156" s="0" t="s">
@@ -3648,10 +3654,10 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B157" s="2" t="n">
+      <c r="A157" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B157" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C157" s="0" t="s">
@@ -3665,25 +3671,25 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B158" s="2" t="n">
+      <c r="A158" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B158" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C158" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D158" s="12"/>
+      <c r="D158" s="13"/>
       <c r="E158" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B159" s="2" t="n">
+      <c r="A159" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B159" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C159" s="0" t="s">
@@ -3697,10 +3703,10 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B160" s="2" t="n">
+      <c r="A160" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B160" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C160" s="0" t="s">
@@ -3714,31 +3720,31 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B161" s="2" t="n">
+      <c r="A161" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B161" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C161" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="8" t="n">
+      <c r="D161" s="13"/>
+      <c r="E161" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B162" s="2" t="n">
+      <c r="A162" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B162" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C162" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E162" s="0" t="n">
@@ -3746,10 +3752,10 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B163" s="2" t="n">
+      <c r="A163" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B163" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C163" s="0" t="s">
@@ -3763,10 +3769,10 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B164" s="2" t="n">
+      <c r="A164" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B164" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C164" s="0" t="s">
@@ -3780,16 +3786,16 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B165" s="2" t="n">
+      <c r="A165" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B165" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E165" s="0" t="n">
@@ -3797,31 +3803,31 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B166" s="2" t="n">
+      <c r="A166" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B166" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D166" s="12"/>
-      <c r="E166" s="8" t="n">
+      <c r="D166" s="13"/>
+      <c r="E166" s="9" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B167" s="2" t="n">
+      <c r="A167" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B167" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E167" s="0" t="n">
@@ -3829,16 +3835,16 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B168" s="2" t="n">
+      <c r="A168" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B168" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D168" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E168" s="0" t="n">
@@ -3846,31 +3852,31 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="n">
-        <v>20151102</v>
-      </c>
-      <c r="B169" s="2" t="n">
+      <c r="A169" s="2" t="n">
+        <v>42310</v>
+      </c>
+      <c r="B169" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D169" s="12"/>
-      <c r="E169" s="8" t="n">
+      <c r="D169" s="13"/>
+      <c r="E169" s="9" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B170" s="2" t="n">
+      <c r="A170" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B170" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D170" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E170" s="0" t="n">
@@ -3878,46 +3884,46 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B171" s="2" t="n">
+      <c r="A171" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B171" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D171" s="12"/>
-      <c r="E171" s="8" t="n">
+      <c r="D171" s="13"/>
+      <c r="E171" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B172" s="2" t="n">
+      <c r="A172" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B172" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D172" s="12"/>
-      <c r="E172" s="8" t="n">
+      <c r="D172" s="13"/>
+      <c r="E172" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B173" s="2" t="n">
+      <c r="A173" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B173" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E173" s="0" t="n">
@@ -3925,31 +3931,31 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B174" s="2" t="n">
+      <c r="A174" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B174" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="12"/>
-      <c r="E174" s="8" t="n">
+      <c r="D174" s="13"/>
+      <c r="E174" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B175" s="2" t="n">
+      <c r="A175" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B175" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E175" s="0" t="n">
@@ -3957,16 +3963,16 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B176" s="2" t="n">
+      <c r="A176" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B176" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E176" s="0" t="n">
@@ -3974,31 +3980,31 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
-        <v>20151109</v>
-      </c>
-      <c r="B177" s="2" t="n">
+      <c r="A177" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B177" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D177" s="12"/>
-      <c r="E177" s="8" t="n">
+      <c r="D177" s="13"/>
+      <c r="E177" s="9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B178" s="2" t="n">
+      <c r="A178" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B178" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D178" s="15" t="s">
+      <c r="D178" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E178" s="0" t="n">
@@ -4006,16 +4012,16 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B179" s="2" t="n">
+      <c r="A179" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B179" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D179" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E179" s="0" t="n">
@@ -4023,16 +4029,16 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B180" s="2" t="n">
+      <c r="A180" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B180" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D180" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E180" s="0" t="n">
@@ -4040,16 +4046,16 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B181" s="2" t="n">
+      <c r="A181" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B181" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E181" s="0" t="n">
@@ -4057,16 +4063,16 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B182" s="2" t="n">
+      <c r="A182" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B182" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D182" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E182" s="0" t="n">
@@ -4074,16 +4080,16 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B183" s="2" t="n">
+      <c r="A183" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B183" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E183" s="0" t="n">
@@ -4091,16 +4097,16 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B184" s="2" t="n">
+      <c r="A184" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B184" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="D184" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E184" s="0" t="n">
@@ -4108,31 +4114,31 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
-        <v>20151103</v>
-      </c>
-      <c r="B185" s="2" t="n">
+      <c r="A185" s="2" t="n">
+        <v>42311</v>
+      </c>
+      <c r="B185" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D185" s="12"/>
-      <c r="E185" s="8" t="n">
+      <c r="D185" s="13"/>
+      <c r="E185" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B186" s="2" t="n">
+      <c r="A186" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B186" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C186" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D186" s="15" t="s">
+      <c r="D186" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E186" s="0" t="n">
@@ -4140,16 +4146,16 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B187" s="2" t="n">
+      <c r="A187" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B187" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D187" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E187" s="0" t="n">
@@ -4157,16 +4163,16 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B188" s="2" t="n">
+      <c r="A188" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B188" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="D188" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="0" t="n">
@@ -4174,16 +4180,16 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B189" s="2" t="n">
+      <c r="A189" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B189" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="14" t="s">
+      <c r="D189" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E189" s="0" t="n">
@@ -4191,16 +4197,16 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B190" s="2" t="n">
+      <c r="A190" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B190" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D190" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E190" s="0" t="n">
@@ -4208,16 +4214,16 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B191" s="2" t="n">
+      <c r="A191" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B191" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D191" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E191" s="0" t="n">
@@ -4225,16 +4231,16 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B192" s="2" t="n">
+      <c r="A192" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B192" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="D192" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E192" s="0" t="n">
@@ -4242,31 +4248,31 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="n">
-        <v>20151110</v>
-      </c>
-      <c r="B193" s="2" t="n">
+      <c r="A193" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B193" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D193" s="12"/>
-      <c r="E193" s="8" t="n">
+      <c r="D193" s="13"/>
+      <c r="E193" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B194" s="2" t="n">
+      <c r="A194" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B194" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D194" s="15" t="s">
+      <c r="D194" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E194" s="0" t="n">
@@ -4274,31 +4280,31 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B195" s="2" t="n">
+      <c r="A195" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B195" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D195" s="12"/>
-      <c r="E195" s="8" t="n">
+      <c r="D195" s="13"/>
+      <c r="E195" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B196" s="2" t="n">
+      <c r="A196" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B196" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D196" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E196" s="0" t="n">
@@ -4306,16 +4312,16 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B197" s="2" t="n">
+      <c r="A197" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B197" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D197" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="0" t="n">
@@ -4323,46 +4329,46 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B198" s="2" t="n">
+      <c r="A198" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B198" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C198" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D198" s="12"/>
-      <c r="E198" s="8" t="n">
+      <c r="D198" s="13"/>
+      <c r="E198" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B199" s="2" t="n">
+      <c r="A199" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B199" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D199" s="12"/>
-      <c r="E199" s="8" t="n">
+      <c r="D199" s="13"/>
+      <c r="E199" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B200" s="2" t="n">
+      <c r="A200" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B200" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D200" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E200" s="0" t="n">
@@ -4370,31 +4376,31 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
-        <v>20151104</v>
-      </c>
-      <c r="B201" s="2" t="n">
+      <c r="A201" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B201" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="8" t="n">
+      <c r="D201" s="13"/>
+      <c r="E201" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B202" s="2" t="n">
+      <c r="A202" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B202" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D202" s="15" t="s">
+      <c r="D202" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="0" t="n">
@@ -4402,31 +4408,31 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B203" s="2" t="n">
+      <c r="A203" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B203" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D203" s="12"/>
-      <c r="E203" s="8" t="n">
+      <c r="D203" s="13"/>
+      <c r="E203" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B204" s="2" t="n">
+      <c r="A204" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B204" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E204" s="0" t="n">
@@ -4434,16 +4440,16 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B205" s="2" t="n">
+      <c r="A205" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B205" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D205" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E205" s="0" t="n">
@@ -4451,78 +4457,78 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B206" s="2" t="n">
+      <c r="A206" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B206" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D206" s="12"/>
-      <c r="E206" s="8" t="n">
+      <c r="D206" s="13"/>
+      <c r="E206" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B207" s="2" t="n">
+      <c r="A207" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B207" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D207" s="12"/>
-      <c r="E207" s="8" t="n">
+      <c r="D207" s="13"/>
+      <c r="E207" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B208" s="2" t="n">
+      <c r="A208" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B208" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D208" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E208" s="8" t="n">
+      <c r="E208" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="n">
-        <v>20151111</v>
-      </c>
-      <c r="B209" s="2" t="n">
+      <c r="A209" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B209" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D209" s="12"/>
-      <c r="E209" s="8" t="n">
+      <c r="D209" s="13"/>
+      <c r="E209" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B210" s="2" t="n">
+      <c r="A210" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B210" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D210" s="14" t="s">
+      <c r="D210" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E210" s="0" t="n">
@@ -4530,16 +4536,16 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B211" s="2" t="n">
+      <c r="A211" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B211" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="D211" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E211" s="0" t="n">
@@ -4547,16 +4553,16 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B212" s="2" t="n">
+      <c r="A212" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B212" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D212" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E212" s="0" t="n">
@@ -4564,16 +4570,16 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B213" s="2" t="n">
+      <c r="A213" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B213" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D213" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E213" s="0" t="n">
@@ -4581,16 +4587,16 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B214" s="2" t="n">
+      <c r="A214" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B214" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D214" s="14" t="s">
+      <c r="D214" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="0" t="n">
@@ -4598,16 +4604,16 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B215" s="2" t="n">
+      <c r="A215" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B215" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="D215" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E215" s="0" t="n">
@@ -4615,48 +4621,48 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B216" s="2" t="n">
+      <c r="A216" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B216" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D216" s="12"/>
-      <c r="E216" s="8" t="n">
+      <c r="D216" s="13"/>
+      <c r="E216" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="n">
-        <v>20151105</v>
-      </c>
-      <c r="B217" s="2" t="n">
+      <c r="A217" s="2" t="n">
+        <v>42313</v>
+      </c>
+      <c r="B217" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D217" s="14" t="s">
+      <c r="D217" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E217" s="8" t="n">
+      <c r="E217" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B218" s="2" t="n">
+      <c r="A218" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B218" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D218" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E218" s="0" t="n">
@@ -4664,16 +4670,16 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B219" s="2" t="n">
+      <c r="A219" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B219" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D219" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E219" s="0" t="n">
@@ -4681,16 +4687,16 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B220" s="2" t="n">
+      <c r="A220" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B220" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="D220" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E220" s="0" t="n">
@@ -4698,16 +4704,16 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B221" s="2" t="n">
+      <c r="A221" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B221" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D221" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E221" s="0" t="n">
@@ -4715,16 +4721,16 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B222" s="2" t="n">
+      <c r="A222" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B222" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D222" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E222" s="0" t="n">
@@ -4732,16 +4738,16 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B223" s="2" t="n">
+      <c r="A223" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B223" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="D223" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E223" s="0" t="n">
@@ -4749,63 +4755,63 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B224" s="2" t="n">
+      <c r="A224" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B224" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D224" s="12"/>
+      <c r="D224" s="13"/>
       <c r="E224" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="n">
-        <v>20151112</v>
-      </c>
-      <c r="B225" s="2" t="n">
+      <c r="A225" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B225" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="D225" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E225" s="8" t="n">
+      <c r="E225" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B226" s="2" t="n">
+      <c r="A226" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B226" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D226" s="12"/>
-      <c r="E226" s="8" t="n">
+      <c r="D226" s="13"/>
+      <c r="E226" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B227" s="2" t="n">
+      <c r="A227" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B227" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="D227" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E227" s="0" t="n">
@@ -4813,16 +4819,16 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B228" s="2" t="n">
+      <c r="A228" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B228" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D228" s="14" t="s">
+      <c r="D228" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E228" s="0" t="n">
@@ -4830,31 +4836,31 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B229" s="2" t="n">
+      <c r="A229" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B229" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D229" s="12"/>
+      <c r="D229" s="13"/>
       <c r="E229" s="0" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B230" s="2" t="n">
+      <c r="A230" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B230" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D230" s="14" t="s">
+      <c r="D230" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E230" s="0" t="n">
@@ -4862,16 +4868,16 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B231" s="2" t="n">
+      <c r="A231" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B231" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D231" s="14" t="s">
+      <c r="D231" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E231" s="0" t="n">
@@ -4879,129 +4885,129 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B232" s="2" t="n">
+      <c r="A232" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B232" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D232" s="14" t="s">
+      <c r="D232" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E232" s="8" t="n">
+      <c r="E232" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="n">
-        <v>20151106</v>
-      </c>
-      <c r="B233" s="2" t="n">
+      <c r="A233" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B233" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D233" s="12"/>
-      <c r="E233" s="8" t="n">
+      <c r="D233" s="13"/>
+      <c r="E233" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B234" s="2" t="n">
+      <c r="A234" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B234" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D234" s="12"/>
-      <c r="E234" s="8" t="n">
+      <c r="D234" s="13"/>
+      <c r="E234" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B235" s="2" t="n">
+      <c r="A235" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B235" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D235" s="14" t="s">
+      <c r="D235" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E235" s="8" t="n">
+      <c r="E235" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B236" s="2" t="n">
+      <c r="A236" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B236" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="D236" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E236" s="8" t="n">
+      <c r="E236" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B237" s="2" t="n">
+      <c r="A237" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B237" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D237" s="12"/>
-      <c r="E237" s="8" t="n">
+      <c r="D237" s="13"/>
+      <c r="E237" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B238" s="2" t="n">
+      <c r="A238" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B238" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D238" s="14" t="s">
+      <c r="D238" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E238" s="8" t="n">
+      <c r="E238" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B239" s="2" t="n">
+      <c r="A239" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B239" s="3" t="n">
         <v>0.583333333333334</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D239" s="14" t="s">
+      <c r="D239" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E239" s="0" t="n">
@@ -5009,16 +5015,16 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B240" s="2" t="n">
+      <c r="A240" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B240" s="3" t="n">
         <v>0.625</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D240" s="14" t="s">
+      <c r="D240" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E240" s="0" t="n">
@@ -5026,17 +5032,17 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="n">
-        <v>20151113</v>
-      </c>
-      <c r="B241" s="2" t="n">
+      <c r="A241" s="2" t="n">
+        <v>42321</v>
+      </c>
+      <c r="B241" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D241" s="12"/>
-      <c r="E241" s="8" t="n">
+      <c r="D241" s="13"/>
+      <c r="E241" s="9" t="n">
         <v>0</v>
       </c>
     </row>
